--- a/data/sisor-dados/base_qdd_plurianual_invest.xlsx
+++ b/data/sisor-dados/base_qdd_plurianual_invest.xlsx
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>40000000</v>
+        <v>2510000000</v>
       </c>
       <c r="S10" t="n">
-        <v>40000000</v>
+        <v>2510000000</v>
       </c>
       <c r="T10" t="n">
-        <v>40000000</v>
+        <v>2710000000</v>
       </c>
       <c r="U10" t="n">
-        <v>40000000</v>
+        <v>2810000000</v>
       </c>
     </row>
     <row r="11">
@@ -1258,16 +1258,16 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2510000000</v>
+        <v>40000000</v>
       </c>
       <c r="S11" t="n">
-        <v>2510000000</v>
+        <v>40000000</v>
       </c>
       <c r="T11" t="n">
-        <v>2710000000</v>
+        <v>40000000</v>
       </c>
       <c r="U11" t="n">
-        <v>2810000000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="12">
@@ -1331,16 +1331,16 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>95000000</v>
+        <v>100000000</v>
       </c>
       <c r="S12" t="n">
         <v>100000000</v>
       </c>
       <c r="T12" t="n">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
       <c r="U12" t="n">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="13">
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>100000000</v>
+        <v>95000000</v>
       </c>
       <c r="S13" t="n">
         <v>100000000</v>
       </c>
       <c r="T13" t="n">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="U13" t="n">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="14">
@@ -3594,16 +3594,16 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>10000000</v>
+        <v>30000000</v>
       </c>
       <c r="S43" t="n">
-        <v>10000000</v>
+        <v>30000000</v>
       </c>
       <c r="T43" t="n">
-        <v>10000000</v>
+        <v>30000000</v>
       </c>
       <c r="U43" t="n">
-        <v>10000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="44">
@@ -3667,16 +3667,16 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>30000000</v>
+        <v>10000000</v>
       </c>
       <c r="S44" t="n">
-        <v>30000000</v>
+        <v>10000000</v>
       </c>
       <c r="T44" t="n">
-        <v>30000000</v>
+        <v>10000000</v>
       </c>
       <c r="U44" t="n">
-        <v>30000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="45">
